--- a/F_dataset/DUD-E/MET/MET_preprocessing/MET_valid.xlsx
+++ b/F_dataset/DUD-E/MET/MET_preprocessing/MET_valid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL502531</t>
+          <t>CHEMBL494979</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C#Cc1c(Oc2ccc(NC(=O)NC(=O)Cc3ccc(F)cc3)cc2F)ccnc1N</t>
+          <t>COc1ccc2c(OCc3nnc4ccc(-c5cc(F)c(F)c(F)c5)nn34)ccnc2c1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C#Cc1c(Oc2ccc(NC(=O)NC(=O)Cc3ccc(F)cc3)cc2F)ccnc1N</t>
+          <t>COc1ccc2c(OCc3nnc4ccc(-c5cc(F)c(F)c(F)c5)nn34)ccnc2c1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>422.39</v>
+        <v>437.38</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>106.34</v>
+        <v>74.43000000000001</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F2DC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC9EE0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F2F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA9D0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F3450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAFF0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL566010</t>
+          <t>CHEMBL518516</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>O=C(CC(=O)Nc1ccc(Oc2ccnc3cc(C(=O)N4CCCC4)sc23)c(F)c1)Nc1ccccc1</t>
+          <t>CN1CCN(c2cnc3cc(C(F)(F)F)cc(NCc4cccc([N+](=O)[O-])c4)c3n2)CC1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O=C(CC(=O)Nc1ccc(Oc2ccnc3cc(C(=O)N4CCCC4)sc23)c(F)c1)Nc1ccccc1</t>
+          <t>CN1CCN(c2cnc3cc(C(F)(F)F)cc(NCc4cccc([N+](=O)[O-])c4)c3n2)CC1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>518.5700000000001</v>
+        <v>446.43</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
         <v>5</v>
       </c>
-      <c r="J5" t="n">
-        <v>7</v>
-      </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>100.63</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F3BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB7D0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL413996</t>
+          <t>CHEMBL550857</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)NC(=O)Cc4ccc(F)cc4)cc3F)c12</t>
+          <t>CN1CCN(C(=O)c2cnc3ccn(S(=O)(=O)c4ccccc4[N+](=O)[O-])c3c2)CC1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)NC(=O)Cc4ccc(F)cc4)cc3F)c12</t>
+          <t>CN1CCN(C(=O)c2cnc3ccn(S(=O)(=O)c4ccccc4[N+](=O)[O-])c3c2)CC1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>579.61</v>
+        <v>429.46</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>113.33</v>
+        <v>118.65</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F2180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB990&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL253222</t>
+          <t>CHEMBL518511</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cc1c(OCCCN(C)C)cn2ncnc(Oc3ccc(NC(=O)c4cccnc4)cc3F)c12</t>
+          <t>COc1cc2nccc(Oc3ccc(NC(=O)Cc4ccccc4)nc3)c2cc1OC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cc1c(OCCCN(C)C)cn2ncnc(Oc3ccc(NC(=O)c4cccnc4)cc3F)c12</t>
+          <t>COc1cc2nccc(Oc3ccc(NC(=O)Cc4ccccc4)nc3)c2cc1OC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,17 +915,17 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>464.5</v>
+        <v>415.45</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
         <v>7</v>
       </c>
-      <c r="J7" t="n">
-        <v>9</v>
-      </c>
       <c r="K7" t="n">
         <v>4</v>
       </c>
@@ -933,7 +933,7 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>93.88</v>
+        <v>82.56999999999999</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F2C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC9B60&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL518511</t>
+          <t>CHEMBL1170607</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COc1cc2nccc(Oc3ccc(NC(=O)Cc4ccccc4)nc3)c2cc1OC</t>
+          <t>Nc1ncc(-c2cnn(C3CCOCC3)c2)cc1-c1nc2ccccc2o1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COc1cc2nccc(Oc3ccc(NC(=O)Cc4ccccc4)nc3)c2cc1OC</t>
+          <t>Nc1ncc(-c2cnn(C3CCOCC3)c2)cc1-c1nc2ccccc2o1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>415.45</v>
+        <v>361.41</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -992,16 +992,16 @@
         <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>82.56999999999999</v>
+        <v>91.98999999999999</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F31B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCBA00&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL600604</t>
+          <t>CHEMBL525260</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,44 +1032,44 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COc1cc2nccc(Oc3ccc(NC(CC(=O)Nc4ccccc4)C(F)(F)F)cc3F)c2cc1OC</t>
+          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ccnc3[nH]c(-c4cccnc4)cc23)c(F)c1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COc1cc2nccc(Oc3ccc(NC(CC(=O)Nc4ccccc4)C(F)(F)F)cc3F)c2cc1OC</t>
+          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ccnc3[nH]c(-c4cccnc4)cc23)c(F)c1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>529.49</v>
+        <v>499.48</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
-        <v>9</v>
-      </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>81.70999999999999</v>
+        <v>109</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F3610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC8EB0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL565807</t>
+          <t>CHEMBL503901</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CCn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)C5(C(=O)Nc6ccccc6)CC5)cc4F)c3s2)c1</t>
+          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cn(-c2ccc(Cl)c(F)c2)cc(-c2ccc(F)cc2)c1=O</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CCn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)C5(C(=O)Nc6ccccc6)CC5)cc4F)c3s2)c1</t>
+          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cn(-c2ccc(Cl)c(F)c2)cc(-c2ccc(F)cc2)c1=O</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>541.61</v>
+        <v>586.96</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>98.14</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F3A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC95B0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL1097142</t>
+          <t>CHEMBL499886</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nc1cc(Oc2ccc(Nc3ncccc3C(=O)Nc3ccc(F)cc3F)cc2F)ccn1</t>
+          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ccnc3[nH]cc(CO)c23)c(F)c1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nc1cc(Oc2ccc(Nc3ncccc3C(=O)Nc3ccc(F)cc3F)cc2F)ccn1</t>
+          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ccnc3[nH]cc(CO)c23)c(F)c1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>451.41</v>
+        <v>452.42</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>6</v>
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>102.16</v>
+        <v>116.34</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F1D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB680&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL502544</t>
+          <t>CHEMBL1097142</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ccnc3[nH]cc(C(=O)CN4CCC(O)C4)c23)c(F)c1</t>
+          <t>Nc1cc(Oc2ccc(Nc3ncccc3C(=O)Nc3ccc(F)cc3F)cc2F)ccn1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ccnc3[nH]cc(C(=O)CN4CCC(O)C4)c23)c(F)c1</t>
+          <t>Nc1cc(Oc2ccc(Nc3ncccc3C(=O)Nc3ccc(F)cc3F)cc2F)ccn1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>549.53</v>
+        <v>451.41</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>136.65</v>
+        <v>102.16</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F22D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB760&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL502331</t>
+          <t>CHEMBL565990</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>COc1cc2c(Oc3ccc(-c4cnc(Cc5ccccc5)n(C)c4=O)cc3F)ccnc2cc1OCCCn1cncn1</t>
+          <t>CCn1cnc(C(=O)c2cc3nccc(Oc4ccc(NC(=O)CC(=O)Nc5ccccc5)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COc1cc2c(Oc3ccc(-c4cnc(Cc5ccccc5)n(C)c4=O)cc3F)ccnc2cc1OCCCn1cncn1</t>
+          <t>CCn1cnc(C(=O)c2cc3nccc(Oc4ccc(NC(=O)CC(=O)Nc5ccccc5)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>592.63</v>
+        <v>543.58</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>106.18</v>
+        <v>115.21</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F2960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB8B0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL518209</t>
+          <t>CHEMBL453849</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)C5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
+          <t>CC(C)CCn1cccc(C(=O)Nc2ccc(Oc3ccnc4[nH]ccc34)c(F)c2)c1=O</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)C5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
+          <t>CC(C)CCn1cccc(C(=O)Nc2ccc(Oc3ccnc4[nH]ccc34)c(F)c2)c1=O</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>527.58</v>
+        <v>434.47</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>89.34999999999999</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F0270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCBED0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL1098157</t>
+          <t>CHEMBL400332</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)c5cnn(C)c5C(F)(F)F)cc4F)c3s2)c1</t>
+          <t>Cc1c(OCCCN(C)C)cn2ncnc(Oc3ccc(NC(=O)c4c(F)cccc4F)cc3F)c12</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)c5cnn(C)c5C(F)(F)F)cc4F)c3s2)c1</t>
+          <t>Cc1c(OCCCN(C)C)cn2ncnc(Oc3ccc(NC(=O)c4c(F)cccc4F)cc3F)c12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>516.48</v>
+        <v>499.49</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>86.86</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F1D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC8200&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL510316</t>
+          <t>CHEMBL1098517</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cccn(-c2cccnc2)c1=O</t>
+          <t>O=C(Nc1ccc(F)cc1F)c1nccnc1Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cccn(-c2cccnc2)c1=O</t>
+          <t>O=C(Nc1ccc(F)cc1F)c1nccnc1Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>441.42</v>
+        <v>476.42</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1545,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>101.9</v>
+        <v>104.82</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F2B90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC82E0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL602704</t>
+          <t>CHEMBL429490</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(CC(=O)Nc5ccc(F)cc5)C(F)(F)F)cc4F)c3s2)c1</t>
+          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ncnn3ccc(CNC4CCNCC4)c23)c(F)c1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(CC(=O)Nc5ccc(F)cc5)C(F)(F)F)cc4F)c3s2)c1</t>
+          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ncnn3ccc(CNC4CCNCC4)c23)c(F)c1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>573.55</v>
+        <v>535.5599999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
         <v>8</v>
@@ -1610,10 +1610,10 @@
         <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>81.06999999999999</v>
+        <v>121.68</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F1EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC85F0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL401344</t>
+          <t>CHEMBL448993</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cc1c(OCCN2CCOCC2)cn2ncnc(Oc3ccc(NC(=O)CC(=O)Nc4ccc(F)cc4)cc3F)c12</t>
+          <t>CC(=O)c1cccc(-c2cc3nccc(Oc4ccc(NC(=O)N5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cc1c(OCCN2CCOCC2)cn2ncnc(Oc3ccc(NC(=O)CC(=O)Nc4ccc(F)cc4)cc3F)c12</t>
+          <t>CC(=O)c1cccc(-c2cc3nccc(Oc4ccc(NC(=O)N5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>566.5700000000001</v>
+        <v>566.61</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" t="n">
         <v>5</v>
       </c>
-      <c r="L18" t="n">
-        <v>4</v>
-      </c>
       <c r="M18" t="n">
-        <v>119.32</v>
+        <v>91.84</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F3E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC8C10&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL448993</t>
+          <t>CHEMBL600632</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CC(=O)c1cccc(-c2cc3nccc(Oc4ccc(NC(=O)N5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
+          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)CC(Nc5ccccc5)C(F)(F)F)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CC(=O)c1cccc(-c2cc3nccc(Oc4ccc(NC(=O)N5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
+          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)CC(Nc5ccccc5)C(F)(F)F)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>566.61</v>
+        <v>555.5599999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>91.84</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F1F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC8F20&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL461119</t>
+          <t>CHEMBL399698</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>COc1cc2nccc(Oc3ccc(NC(=O)NC(=O)CN4CCCC4)nc3)c2cc1OC</t>
+          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)CC(=O)Nc4ccc(F)cc4)cc3F)c12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>COc1cc2nccc(Oc3ccc(NC(=O)NC(=O)CN4CCCC4)nc3)c2cc1OC</t>
+          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)CC(=O)Nc4ccc(F)cc4)cc3F)c12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1795,11 +1795,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>451.48</v>
+        <v>579.61</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
@@ -1808,16 +1808,16 @@
         <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>114.91</v>
+        <v>113.33</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F2570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC9620&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL255092</t>
+          <t>CHEMBL401838</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)c4c(F)cccc4F)cc3F)c12</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(C(=O)N4CCOCC4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)c4c(F)cccc4F)cc3F)c12</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(C(=O)N4CCOCC4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,16 +1867,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>540.55</v>
+        <v>550.64</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
         <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
@@ -1885,7 +1885,7 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>84.23</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F38B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC9850&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,52 +1908,52 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL403747</t>
+          <t>C35742248</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>O=C(c1ccco1)N(CC[NH+]1CCCC1)CC(=O)N1CCc2sccc2[C@@H]1COc1ccc(F)cc1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>O=C(c1ccco1)N(CC[NH+]1CCCC1)CC(=O)N1CCc2sccc2[C@@H]1COc1ccc(F)cc1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>G2 inactive</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>512.63</v>
+      </c>
+      <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4ccoc4)sc23)c(F)c1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4ccoc4)sc23)c(F)c1</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>503.58</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K22" t="n">
         <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>76.39</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F0430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCC10&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,52 +1976,52 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL401838</t>
+          <t>C65248649</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(C(=O)N4CCOCC4)sc23)c(F)c1</t>
+          <t>COc1cccc(C2=NO[C@@H]([C@H]3C(=O)[NH+]=c4ccc(C)cc4=C3O)N2)c1OC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(C(=O)N4CCOCC4)sc23)c(F)c1</t>
+          <t>COc1cccc(C2=NO[C@@H]([C@H]3C(=O)[NH+]=c4ccc(C)cc4=C3O)N2)c1OC</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>550.64</v>
+        <v>382.4</v>
       </c>
       <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4</v>
-      </c>
       <c r="M23" t="n">
-        <v>92.79000000000001</v>
+        <v>103.35</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F06D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD7E0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,52 +2044,52 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL428944</t>
+          <t>C05164633</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CC1=NN=C2OC(N)=C(C#N)[C@]3(C(=O)N(CCCc4ccccc4)c4ccccc43)[C@@H]12</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CC1=NN=C2OC(N)=C(C#N)[C@]3(C(=O)N(CCCc4ccccc4)c4ccccc43)[C@@H]12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>G2 inactive</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>411.47</v>
+      </c>
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>N[C@H]1CCN(Cc2ccn3ncnc(Oc4ccc(NC(=O)NC(=O)Cc5ccc(F)cc5)cc4F)c23)C1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>N[C@H]1CCN(Cc2ccn3ncnc(Oc4ccc(NC(=O)NC(=O)Cc5ccc(F)cc5)cc4F)c23)C1</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>521.53</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
         <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>126.88</v>
+        <v>104.07</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F0890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCF20&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C35742248</t>
+          <t>C13165916</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>O=C(c1ccco1)N(CC[NH+]1CCCC1)CC(=O)N1CCc2sccc2[C@@H]1COc1ccc(F)cc1</t>
+          <t>O=[N+]([O-])C1=C/C(=[N+](/[O-])O)c2cccnc2[C@]12SC1=CC=CC=CC1=[N+]2Cc1ccccc1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O=C(c1ccco1)N(CC[NH+]1CCCC1)CC(=O)N1CCc2sccc2[C@@H]1COc1ccc(F)cc1</t>
+          <t>O=[N+]([O-])C1=C/C(=[N+](/[O-])O)c2cccnc2[C@]12SC1=CC=CC=CC1=[N+]2Cc1ccccc1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>512.63</v>
+        <v>445.48</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>67.43000000000001</v>
+        <v>105.34</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F5150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD2A0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C65248649</t>
+          <t>C10508026</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>COc1cccc(C2=NO[C@@H]([C@H]3C(=O)[NH+]=c4ccc(C)cc4=C3O)N2)c1OC</t>
+          <t>O=[N+]([O-])c1ccc(S(=O)(=O)NC[C@H](c2cccc3ccccc23)[NH+]2CCCC2)cc1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>COc1cccc(C2=NO[C@@H]([C@H]3C(=O)[NH+]=c4ccc(C)cc4=C3O)N2)c1OC</t>
+          <t>O=[N+]([O-])c1ccc(S(=O)(=O)NC[C@H](c2cccc3ccccc23)[NH+]2CCCC2)cc1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>382.4</v>
+        <v>426.52</v>
       </c>
       <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" t="n">
         <v>3</v>
       </c>
-      <c r="I26" t="n">
-        <v>6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2</v>
-      </c>
       <c r="M26" t="n">
-        <v>103.35</v>
+        <v>93.75</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F4120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD380&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C05164633</t>
+          <t>C08862345</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CC1=NN=C2OC(N)=C(C#N)[C@]3(C(=O)N(CCCc4ccccc4)c4ccccc43)[C@@H]12</t>
+          <t>CCn1c(CSc2nc3nc(C)cc(C)n3n2)nc2cc(S(=O)(=O)N3CCOCC3)ccc21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CC1=NN=C2OC(N)=C(C#N)[C@]3(C(=O)N(CCCc4ccccc4)c4ccccc43)[C@@H]12</t>
+          <t>CCn1c(CSc2nc3nc(C)cc(C)n3n2)nc2cc(S(=O)(=O)N3CCOCC3)ccc21</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>411.47</v>
+        <v>487.61</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
         <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>104.07</v>
+        <v>107.51</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F4040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC430&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C13165916</t>
+          <t>C66859830</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])C1=C/C(=[N+](/[O-])O)c2cccnc2[C@]12SC1=CC=CC=CC1=[N+]2Cc1ccccc1</t>
+          <t>O[C@@]1(CNc2ccc3nnnn3n2)CCCc2ccccc21</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])C1=C/C(=[N+](/[O-])O)c2cccnc2[C@]12SC1=CC=CC=CC1=[N+]2Cc1ccccc1</t>
+          <t>O[C@@]1(CNc2ccc3nnnn3n2)CCCc2ccccc21</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>445.48</v>
+        <v>296.33</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
         <v>6</v>
@@ -2355,13 +2355,13 @@
         <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>105.34</v>
+        <v>88.23</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC890&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C10508026</t>
+          <t>C45498864</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc(S(=O)(=O)NC[C@H](c2cccc3ccccc23)[NH+]2CCCC2)cc1</t>
+          <t>CC(C)Oc1cc(-c2ccc(CC[NH2+]C[C@H](O)c3c[nH+]ccc3N)cc2)ccc1/C([O-])=N/S(C)(=O)=O</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc(S(=O)(=O)NC[C@H](c2cccc3ccccc23)[NH+]2CCCC2)cc1</t>
+          <t>CC(C)Oc1cc(-c2ccc(CC[NH2+]C[C@H](O)c3c[nH+]ccc3N)cc2)ccc1/C([O-])=N/S(C)(=O)=O</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>426.52</v>
+        <v>513.64</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>93.75</v>
+        <v>155.79</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC970&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C08862345</t>
+          <t>C04237023</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CCn1c(CSc2nc3nc(C)cc(C)n3n2)nc2cc(S(=O)(=O)N3CCOCC3)ccc21</t>
+          <t>C#CCNC(=O)C[C@@H]1c2nc(NC(=O)OCC=C)sc2C[C@@H]2[C@](C)(CO)[C@H](O)CC[C@]21C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CCn1c(CSc2nc3nc(C)cc(C)n3n2)nc2cc(S(=O)(=O)N3CCOCC3)ccc21</t>
+          <t>C#CCNC(=O)C[C@@H]1c2nc(NC(=O)OCC=C)sc2C[C@H]2[C@@]1(C)CC[C@@H](O)[C@@]2(C)CO</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>487.61</v>
+        <v>461.58</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>107.51</v>
+        <v>120.78</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F77D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCF90&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C66859830</t>
+          <t>C04264725</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>O[C@@]1(CNc2ccc3nnnn3n2)CCCc2ccccc21</t>
+          <t>CC(C)[C@H](NC(=O)[C@@H]1O[C@H]2OC(C)(C)O[C@@H]2[C@H]2OC(C)(C)O[C@@H]21)C(=O)[O-]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>O[C@@]1(CNc2ccc3nnnn3n2)CCCc2ccccc21</t>
+          <t>CC(C)[C@H](NC(=O)[C@@H]1O[C@H]2OC(C)(C)O[C@@H]2[C@H]2OC(C)(C)O[C@@H]21)C(=O)[O-]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>296.33</v>
+        <v>372.39</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" t="n">
         <v>3</v>
       </c>
-      <c r="K31" t="n">
-        <v>4</v>
-      </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>88.23</v>
+        <v>115.38</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F76F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCAC0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C45498864</t>
+          <t>C39738846</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CC(C)Oc1cc(-c2ccc(CC[NH2+]C[C@H](O)c3c[nH+]ccc3N)cc2)ccc1/C([O-])=N/S(C)(=O)=O</t>
+          <t>CC(=O)c1c(C)[nH]c(C(=O)[C@H](C)S[C@H]2Nn3c(nnc(C(C)(C)C)c3=O)S2)c1C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CC(C)Oc1cc(-c2ccc(CC[NH2+]C[C@H](O)c3c[nH+]ccc3N)cc2)ccc1/C([O-])=N/S(C)(=O)=O</t>
+          <t>CC(=O)c1c(C)[nH]c(C(=O)[C@H](C)S[C@H]2Nn3c(nnc(C(C)(C)C)c3=O)S2)c1C</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>513.64</v>
+        <v>435.58</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
         <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>155.79</v>
+        <v>109.74</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD9A0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C04237023</t>
+          <t>C09236719</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>C#CCNC(=O)C[C@@H]1c2nc(NC(=O)OCC=C)sc2C[C@@H]2[C@](C)(CO)[C@H](O)CC[C@]21C</t>
+          <t>CCc1cccc2c1NC(=O)[C@]21[C@@H]2C(=O)N(c3ccc(Br)cc3)C(=O)[C@@H]2[C@@H]2CCC[NH+]21</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C#CCNC(=O)C[C@@H]1c2nc(NC(=O)OCC=C)sc2C[C@H]2[C@@]1(C)CC[C@@H](O)[C@@]2(C)CO</t>
+          <t>CCc1cccc2c1NC(=O)[C@]21[C@@H]2C(=O)N(c3ccc(Br)cc3)C(=O)[C@@H]2[C@@H]2CCC[NH+]21</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>461.58</v>
+        <v>481.37</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
         <v>6</v>
       </c>
-      <c r="J33" t="n">
-        <v>7</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3</v>
-      </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>120.78</v>
+        <v>70.92</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDDA80&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C04264725</t>
+          <t>C06244925</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CC(C)[C@H](NC(=O)[C@@H]1O[C@H]2OC(C)(C)O[C@@H]2[C@H]2OC(C)(C)O[C@@H]21)C(=O)[O-]</t>
+          <t>Cc1ccc(C)c2[nH]c(=O)c([C@H](c3nnnn3C[C@@H]3CCCO3)[NH+]3CCN(c4ccccc4F)CC3)cc12</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CC(C)[C@H](NC(=O)[C@@H]1O[C@H]2OC(C)(C)O[C@@H]2[C@H]2OC(C)(C)O[C@@H]21)C(=O)[O-]</t>
+          <t>Cc1ccc(C)c2[nH]c(=O)c([C@H](c3nnnn3C[C@@H]3CCCO3)[NH+]3CCN(c4ccccc4F)CC3)cc12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,25 +2751,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>372.39</v>
+        <v>518.62</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>115.38</v>
+        <v>93.37</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDDFC0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C39738846</t>
+          <t>C40010451</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CC(=O)c1c(C)[nH]c(C(=O)[C@H](C)S[C@H]2Nn3c(nnc(C(C)(C)C)c3=O)S2)c1C</t>
+          <t>C[C@@H]1CCC2=C3C(=O)N=C(COC(=O)c4ccc([N+](=O)[O-])s4)N=C3S[C@@H]2C1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CC(=O)c1c(C)[nH]c(C(=O)[C@H](C)S[C@H]2Nn3c(nnc(C(C)(C)C)c3=O)S2)c1C</t>
+          <t>C[C@@H]1CCC2=C3C(=O)N=C(COC(=O)c4ccc([N+](=O)[O-])s4)N=C3S[C@@H]2C1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>435.58</v>
+        <v>405.46</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>109.74</v>
+        <v>111.23</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F71B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDE030&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C09236719</t>
+          <t>C63938142</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CCc1cccc2c1NC(=O)[C@]21[C@@H]2C(=O)N(c3ccc(Br)cc3)C(=O)[C@@H]2[C@@H]2CCC[NH+]21</t>
+          <t>N[C@H]1C(c2ccccc2)=C(CSC2[NH+]=c3ccccc3=[NH+]2)NN1c1cccc(Cl)c1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CCc1cccc2c1NC(=O)[C@]21[C@@H]2C(=O)N(c3ccc(Br)cc3)C(=O)[C@@H]2[C@@H]2CCC[NH+]21</t>
+          <t>N[C@H]1C(c2ccccc2)=C(CSC2[NH+]=c3ccccc3=[NH+]2)NN1c1cccc(Cl)c1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,25 +2887,25 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>481.37</v>
+        <v>435.98</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" t="n">
         <v>3</v>
       </c>
-      <c r="J36" t="n">
-        <v>2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>6</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2</v>
-      </c>
       <c r="M36" t="n">
-        <v>70.92</v>
+        <v>69.23</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDE500&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C06244925</t>
+          <t>C38586321</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cc1ccc(C)c2[nH]c(=O)c([C@H](c3nnnn3C[C@@H]3CCCO3)[NH+]3CCN(c4ccccc4F)CC3)cc12</t>
+          <t>CC1=C2[C@H](c3c(Cl)cccc3Cl)CC(O)=N[C@@H]2N(C2=NC=NC3=NC=N[C@@H]32)N1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cc1ccc(C)c2[nH]c(=O)c([C@H](c3nnnn3C[C@@H]3CCCO3)[NH+]3CCN(c4ccccc4F)CC3)cc12</t>
+          <t>CC1=C2[C@H](c3c(Cl)cccc3Cl)CC(O)=N[C@@H]2N(C2=NC=NC3=NC=N[C@@H]32)N1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2955,25 +2955,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>518.62</v>
+        <v>416.27</v>
       </c>
       <c r="H37" t="n">
         <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>93.37</v>
+        <v>97.3</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDE6C0&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C40010451</t>
+          <t>C60556185</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCC2=C3C(=O)N=C(COC(=O)c4ccc([N+](=O)[O-])s4)N=C3S[C@@H]2C1</t>
+          <t>Cc1cc(I)ccc1NCc1cc(=O)n2ccsc2[nH+]1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCC2=C3C(=O)N=C(COC(=O)c4ccc([N+](=O)[O-])s4)N=C3S[C@@H]2C1</t>
+          <t>Cc1cc(I)ccc1NCc1cc(=O)n2ccsc2[nH+]1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3023,25 +3023,25 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>405.46</v>
+        <v>398.25</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>111.23</v>
+        <v>47.65</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F6A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDEE30&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C63938142</t>
+          <t>C38807866</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>N[C@H]1C(c2ccccc2)=C(CSC2[NH+]=c3ccccc3=[NH+]2)NN1c1cccc(Cl)c1</t>
+          <t>O=C(CN1C=C(/C=N/O)C=CC1)C1CCC(C2CCC(C(=O)C[NH+]3CCC[C@@H](/C=N/O)C3)CC2)CC1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>N[C@H]1C(c2ccccc2)=C(CSC2[NH+]=c3ccccc3=[NH+]2)NN1c1cccc(Cl)c1</t>
+          <t>O=C(CN1C=C(/C=N/O)C=CC1)C1CCC(C2CCC(C(=O)C[NH+]3CCC[C@@H](/C=N/O)C3)CC2)CC1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3091,25 +3091,25 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>435.98</v>
+        <v>499.68</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>69.23</v>
+        <v>107</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F67A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDEFF0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C38586321</t>
+          <t>C41273818</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CC1=C2[C@H](c3c(Cl)cccc3Cl)CC(O)=N[C@@H]2N(C2=NC=NC3=NC=N[C@@H]32)N1</t>
+          <t>C[C@H](CNC(=O)C1CC[NH+](Cc2nnc(-c3ccc(Cl)cc3)o2)CC1)c1ccccc1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CC1=C2[C@H](c3c(Cl)cccc3Cl)CC(O)=N[C@@H]2N(C2=NC=NC3=NC=N[C@@H]32)N1</t>
+          <t>C[C@H](CNC(=O)C1CC[NH+](Cc2nnc(-c3ccc(Cl)cc3)o2)CC1)c1ccccc1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3159,25 +3159,25 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>416.27</v>
+        <v>439.97</v>
       </c>
       <c r="H40" t="n">
         <v>2</v>
       </c>
       <c r="I40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>7</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
+      <c r="L40" t="n">
         <v>3</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>5</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
       <c r="M40" t="n">
-        <v>97.3</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F65E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDF0D0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C60556185</t>
+          <t>C09306596</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cc1cc(I)ccc1NCc1cc(=O)n2ccsc2[nH+]1</t>
+          <t>CCOC(=O)CCc1c(C)c2ccc3c(c2oc1=O)C[NH+]([C@@]1(C)CCS(=O)(=O)C1)CO3</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cc1cc(I)ccc1NCc1cc(=O)n2ccsc2[nH+]1</t>
+          <t>CCOC(=O)CCc1c(C)c2ccc3c(c2oc1=O)C[NH+]([C@@]1(C)CCS(=O)(=O)C1)CO3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3223,29 +3223,29 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>398.25</v>
+        <v>450.53</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
+        <v>7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" t="n">
         <v>2</v>
       </c>
-      <c r="J41" t="n">
-        <v>3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3</v>
-      </c>
       <c r="M41" t="n">
-        <v>47.65</v>
+        <v>104.32</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F63B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDF290&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C38807866</t>
+          <t>C37538300</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>O=C(CN1C=C(/C=N/O)C=CC1)C1CCC(C2CCC(C(=O)C[NH+]3CCC[C@@H](/C=N/O)C3)CC2)CC1</t>
+          <t>C=C1[C@@H](O)[C@@H](O)[C@@]2(C[C@@H]3C(C)=CC[C@@H]4C(C)(C)CCC[C@]34C)O[C@H]2[C@H]1O</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>O=C(CN1C=C(/C=N/O)C=CC1)C1CCC(C2CCC(C(=O)C[NH+]3CCC[C@@H](/C=N/O)C3)CC2)CC1</t>
+          <t>C=C1[C@H](O)[C@@H]2O[C@]2(C[C@@H]2C(C)=CC[C@@H]3C(C)(C)CCC[C@]23C)[C@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3291,20 +3291,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>499.68</v>
+        <v>362.51</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
         <v>4</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>107</v>
+        <v>73.22</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F4AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDF4C0&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C41273818</t>
+          <t>C17250670</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>C[C@H](CNC(=O)C1CC[NH+](Cc2nnc(-c3ccc(Cl)cc3)o2)CC1)c1ccccc1</t>
+          <t>C[C@@H]1CN(S(=O)(=O)c2cccc(-c3cs/c(=N\N=C\c4ccc(Cl)cc4)[nH]3)c2)C[C@H](C)O1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>C[C@H](CNC(=O)C1CC[NH+](Cc2nnc(-c3ccc(Cl)cc3)o2)CC1)c1ccccc1</t>
+          <t>C[C@H]1CN(S(=O)(=O)c2cccc(-c3cs/c(=N\N=C\c4ccc(Cl)cc4)[nH]3)c2)C[C@@H](C)O1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3359,20 +3359,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>439.97</v>
+        <v>491.04</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K43" t="n">
         <v>4</v>
@@ -3381,7 +3381,7 @@
         <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>72.45999999999999</v>
+        <v>87.12</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F4900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDF920&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C09306596</t>
+          <t>CHEMBL517956</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CCOC(=O)CCc1c(C)c2ccc3c(c2oc1=O)C[NH+]([C@@]1(C)CCS(=O)(=O)C1)CO3</t>
+          <t>Cc1ccc(O)cc1CC[C@@H]1[C@H](O)CC[C@]2(C)[C@@H]([C@H](C)CCCC(C)C)CC[C@@H]12</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CCOC(=O)CCc1c(C)c2ccc3c(c2oc1=O)C[NH+]([C@@]1(C)CCS(=O)(=O)C1)CO3</t>
+          <t>Cc1ccc(O)cc1CC[C@H]1[C@@H]2CC[C@H]([C@H](C)CCCC(C)C)[C@@]2(C)CC[C@H]1O</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3427,40 +3427,66 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>450.53</v>
+        <v>400.65</v>
       </c>
       <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" t="n">
         <v>1</v>
       </c>
-      <c r="I44" t="n">
-        <v>7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>4</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2</v>
-      </c>
       <c r="M44" t="n">
-        <v>104.32</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
+        <v>40.46</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>IC50</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>nM</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>78000</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>CHEMBL1926227</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Inhibition of wild type human MET using poly(Ala,Glu,Lys,Tyr) as substrate</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F4820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDF990&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3498,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C37538300</t>
+          <t>CHEMBL1813628</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3506,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>C=C1[C@@H](O)[C@@H](O)[C@@]2(C[C@@H]3C(C)=CC[C@@H]4C(C)(C)CCC[C@]34C)O[C@H]2[C@H]1O</t>
+          <t>COc1ccc(-c2c(C)[nH]c(=O)c3c(N)nn(C)c23)cc1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>C=C1[C@H](O)[C@@H]2O[C@]2(C[C@@H]2C(C)=CC[C@@H]3C(C)(C)CCC[C@]23C)[C@H](O)[C@@H]1O</t>
+          <t>COc1ccc(-c2c(C)[nH]c(=O)c3c(N)nn(C)c23)cc1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3495,14 +3521,14 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>362.51</v>
+        <v>284.32</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
@@ -3511,24 +3537,50 @@
         <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>73.22</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
+        <v>85.93000000000001</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>18</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>CHEMBL1815730</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Inhibition of MET at 30 uM by microfluidic mobility shift assay</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F47B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDFB50&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3540,7 +3592,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C17250670</t>
+          <t>CHEMBL1940997</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3548,12 +3600,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>C[C@@H]1CN(S(=O)(=O)c2cccc(-c3cs/c(=N\N=C\c4ccc(Cl)cc4)[nH]3)c2)C[C@H](C)O1</t>
+          <t>CC(=O)OC[C@H]1O[C@@H](NC(=O)CCCn2[se]c3ccccc3c2=O)[C@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>C[C@H]1CN(S(=O)(=O)c2cccc(-c3cs/c(=N\N=C\c4ccc(Cl)cc4)[nH]3)c2)C[C@@H](C)O1</t>
+          <t>CC(=O)OC[C@H]1O[C@@H](NC(=O)CCCn2[se]c3ccccc3c2=O)[C@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3563,40 +3615,66 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>491.04</v>
+        <v>613.48</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
       </c>
       <c r="I46" t="n">
+        <v>11</v>
+      </c>
+      <c r="J46" t="n">
+        <v>10</v>
+      </c>
+      <c r="K46" t="n">
         <v>3</v>
       </c>
-      <c r="J46" t="n">
-        <v>5</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4</v>
-      </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>87.12</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
+        <v>165.53</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>CHEMBL1943931</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Inhibition of MET at 1 uM</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F4430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDFD10&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3608,7 +3686,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL517956</t>
+          <t>CHEMBL1171699</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3616,12 +3694,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cc1ccc(O)cc1CC[C@@H]1[C@H](O)CC[C@]2(C)[C@@H]([C@H](C)CCCC(C)C)CC[C@@H]12</t>
+          <t>OCc1cccc(-c2cnc3ncc(-c4cn[nH]c4)cn23)c1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cc1ccc(O)cc1CC[C@H]1[C@@H]2CC[C@H]([C@H](C)CCCC(C)C)[C@@]2(C)CC[C@H]1O</t>
+          <t>OCc1cccc(-c2cnc3ncc(-c4cn[nH]c4)cn23)c1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3635,29 +3713,29 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>400.65</v>
+        <v>291.31</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>40.46</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Inhibition</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3667,20 +3745,20 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>nM</t>
+          <t>%</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>78000</v>
+        <v>4</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>CHEMBL1926227</t>
+          <t>CHEMBL1173995</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Inhibition of wild type human MET using poly(Ala,Glu,Lys,Tyr) as substrate</t>
+          <t>Inhibition of MET at 10 uM by mobility shift assay</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -3690,7 +3768,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCC80&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3702,7 +3780,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL1813628</t>
+          <t>CHEMBL2062290</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3710,12 +3788,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2c(C)[nH]c(=O)c3c(N)nn(C)c23)cc1</t>
+          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nc(-c4cccs4)c(Br)cc23)CC1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2c(C)[nH]c(=O)c3c(N)nn(C)c23)cc1</t>
+          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nc(-c4cccs4)c(Br)cc23)CC1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3729,7 +3807,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>284.32</v>
+        <v>448.39</v>
       </c>
       <c r="H48" t="n">
         <v>2</v>
@@ -3738,16 +3816,16 @@
         <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
         <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>85.93000000000001</v>
+        <v>73.91</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3765,16 +3843,16 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>18</v>
+        <v>-0.55</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>CHEMBL1815730</t>
+          <t>CHEMBL1962142</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Inhibition of MET at 30 uM by microfluidic mobility shift assay</t>
+          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -3784,7 +3862,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD070&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3796,7 +3874,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL1940997</t>
+          <t>CHEMBL220465</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3804,12 +3882,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CC(=O)OC[C@H]1O[C@@H](NC(=O)CCCn2[se]c3ccccc3c2=O)[C@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
+          <t>CCn1c(-c2nonc2N)nc2cnc(Oc3cccc(NC(=O)c4ccc(N(C)C)cc4)c3)cc21</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CC(=O)OC[C@H]1O[C@@H](NC(=O)CCCn2[se]c3ccccc3c2=O)[C@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
+          <t>CCn1c(-c2nonc2N)nc2cnc(Oc3cccc(NC(=O)c4ccc(N(C)C)cc4)c3)cc21</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3823,25 +3901,25 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>613.48</v>
+        <v>484.52</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J49" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M49" t="n">
-        <v>165.53</v>
+        <v>137.22</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3859,16 +3937,16 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>-2.97</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>CHEMBL1943931</t>
+          <t>CHEMBL1962142</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Inhibition of MET at 1 uM</t>
+          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -3878,7 +3956,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD700&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3890,7 +3968,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL1171699</t>
+          <t>CHEMBL233002</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3898,12 +3976,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>OCc1cccc(-c2cnc3ncc(-c4cn[nH]c4)cn23)c1</t>
+          <t>N#Cc1c(NC(=O)c2ccc(F)c3ccccc23)sc2c1CCCC2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>OCc1cccc(-c2cnc3ncc(-c4cn[nH]c4)cn23)c1</t>
+          <t>N#Cc1c(NC(=O)c2ccc(F)c3ccccc23)sc2c1CCCC2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3917,25 +3995,25 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>291.31</v>
+        <v>350.42</v>
       </c>
       <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
         <v>2</v>
       </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
       <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4</v>
+      </c>
+      <c r="L50" t="n">
         <v>3</v>
       </c>
-      <c r="K50" t="n">
-        <v>4</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4</v>
-      </c>
       <c r="M50" t="n">
-        <v>79.09999999999999</v>
+        <v>52.89</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3953,16 +4031,16 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>8.82</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>CHEMBL1173995</t>
+          <t>CHEMBL1962142</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Inhibition of MET at 10 uM by mobility shift assay</t>
+          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -3972,292 +4050,10 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCEB0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>CHEMBL2062290</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nc(-c4cccs4)c(Br)cc23)CC1</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nc(-c4cccs4)c(Br)cc23)CC1</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>448.39</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4</v>
-      </c>
-      <c r="J51" t="n">
-        <v>5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3</v>
-      </c>
-      <c r="M51" t="n">
-        <v>73.91</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CHEMBL1962142</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7990&gt;</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>CHEMBL220465</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cnc(Oc3cccc(NC(=O)c4ccc(N(C)C)cc4)c3)cc21</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cnc(Oc3cccc(NC(=O)c4ccc(N(C)C)cc4)c3)cc21</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>484.52</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>9</v>
-      </c>
-      <c r="J52" t="n">
-        <v>7</v>
-      </c>
-      <c r="K52" t="n">
-        <v>5</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5</v>
-      </c>
-      <c r="M52" t="n">
-        <v>137.22</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q52" t="n">
-        <v>-2.97</v>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>CHEMBL1962142</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F7450&gt;</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>CHEMBL233002</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)c3ccccc23)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)c3ccccc23)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>350.42</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2</v>
-      </c>
-      <c r="K53" t="n">
-        <v>4</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3</v>
-      </c>
-      <c r="M53" t="n">
-        <v>52.89</v>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q53" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>CHEMBL1962142</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441F73E0&gt;</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
         <is>
           <t>G2</t>
         </is>

--- a/F_dataset/DUD-E/MET/MET_preprocessing/MET_valid.xlsx
+++ b/F_dataset/DUD-E/MET/MET_preprocessing/MET_valid.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL494979</t>
+          <t>CHEMBL502531</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COc1ccc2c(OCc3nnc4ccc(-c5cc(F)c(F)c(F)c5)nn34)ccnc2c1</t>
+          <t>C#Cc1c(Oc2ccc(NC(=O)NC(=O)Cc3ccc(F)cc3)cc2F)ccnc1N</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COc1ccc2c(OCc3nnc4ccc(-c5cc(F)c(F)c(F)c5)nn34)ccnc2c1</t>
+          <t>C#Cc1c(Oc2ccc(NC(=O)NC(=O)Cc3ccc(F)cc3)cc2F)ccnc1N</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>437.38</v>
+        <v>422.39</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>74.43000000000001</v>
+        <v>106.34</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC9EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725F530&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL1099174</t>
+          <t>CHEMBL508776</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cc1ccccc1NC(=O)c1cccnc1Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1</t>
+          <t>CN1CC=C(c2cc3nccc(Oc4ccc(NC(=O)N5CCN(c6ccccc6)C5=O)cc4F)c3s2)CC1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cc1ccccc1NC(=O)c1cccnc1Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1</t>
+          <t>CN1CC=C(c2cc3nccc(Oc4ccc(NC(=O)N5CCN(c6ccccc6)C5=O)cc4F)c3s2)CC1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>453.48</v>
+        <v>543.62</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>5</v>
       </c>
       <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="n">
         <v>6</v>
       </c>
-      <c r="K3" t="n">
-        <v>5</v>
-      </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>91.93000000000001</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725F610&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL564904</t>
+          <t>CHEMBL413996</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>O=C(c1cccnc1)N1CCN(c2cnc3ccn(S(=O)(=O)c4cccc5nonc45)c3c2)CC1</t>
+          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)NC(=O)Cc4ccc(F)cc4)cc3F)c12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>O=C(c1cccnc1)N1CCN(c2cnc3ccn(S(=O)(=O)c4cccc5nonc45)c3c2)CC1</t>
+          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)NC(=O)Cc4ccc(F)cc4)cc3F)c12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>489.52</v>
+        <v>579.61</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
         <v>9</v>
       </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>127.32</v>
+        <v>113.33</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725FA70&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL518516</t>
+          <t>CHEMBL253222</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CN1CCN(c2cnc3cc(C(F)(F)F)cc(NCc4cccc([N+](=O)[O-])c4)c3n2)CC1</t>
+          <t>Cc1c(OCCCN(C)C)cn2ncnc(Oc3ccc(NC(=O)c4cccnc4)cc3F)c12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CN1CCN(c2cnc3cc(C(F)(F)F)cc(NCc4cccc([N+](=O)[O-])c4)c3n2)CC1</t>
+          <t>Cc1c(OCCCN(C)C)cn2ncnc(Oc3ccc(NC(=O)c4cccnc4)cc3F)c12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>446.43</v>
+        <v>464.5</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>87.43000000000001</v>
+        <v>93.88</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725FB50&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL550857</t>
+          <t>CHEMBL1170607</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CN1CCN(C(=O)c2cnc3ccn(S(=O)(=O)c4ccccc4[N+](=O)[O-])c3c2)CC1</t>
+          <t>Nc1ncc(-c2cnn(C3CCOCC3)c2)cc1-c1nc2ccccc2o1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CN1CCN(C(=O)c2cnc3ccn(S(=O)(=O)c4ccccc4[N+](=O)[O-])c3c2)CC1</t>
+          <t>Nc1ncc(-c2cnn(C3CCOCC3)c2)cc1-c1nc2ccccc2o1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>429.46</v>
+        <v>361.41</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>118.65</v>
+        <v>91.98999999999999</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725FBC0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL518511</t>
+          <t>CHEMBL258240</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,44 +896,44 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>COc1cc2nccc(Oc3ccc(NC(=O)Cc4ccccc4)nc3)c2cc1OC</t>
+          <t>Cn1ccnc1-c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COc1cc2nccc(Oc3ccc(NC(=O)Cc4ccccc4)nc3)c2cc1OC</t>
+          <t>Cn1ccnc1-c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>415.45</v>
+        <v>517.61</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>82.56999999999999</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC9B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725FC30&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL1170607</t>
+          <t>CHEMBL453850</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,44 +964,44 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nc1ncc(-c2cnn(C3CCOCC3)c2)cc1-c1nc2ccccc2o1</t>
+          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cccn(Cc2ccc(F)cc2)c1=O</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nc1ncc(-c2cnn(C3CCOCC3)c2)cc1-c1nc2ccccc2o1</t>
+          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cccn(Cc2ccc(F)cc2)c1=O</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>361.41</v>
+        <v>472.45</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
         <v>6</v>
       </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
       <c r="K8" t="n">
         <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>91.98999999999999</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCBA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725FED0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL525260</t>
+          <t>CHEMBL454101</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ccnc3[nH]c(-c4cccnc4)cc23)c(F)c1</t>
+          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cccn(-c2ccccn2)c1=O</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ccnc3[nH]c(-c4cccnc4)cc23)c(F)c1</t>
+          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cccn(-c2ccccn2)c1=O</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>499.48</v>
+        <v>441.42</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>109</v>
+        <v>101.9</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC8EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725CCF0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL503901</t>
+          <t>CHEMBL567475</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cn(-c2ccc(Cl)c(F)c2)cc(-c2ccc(F)cc2)c1=O</t>
+          <t>CCn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)CC(=O)Nc5ccc(F)cc5)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1cn(-c2ccc(Cl)c(F)c2)cc(-c2ccc(F)cc2)c1=O</t>
+          <t>CCn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)CC(=O)Nc5ccc(F)cc5)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>586.96</v>
+        <v>533.5599999999999</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>89.01000000000001</v>
+        <v>98.14</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC95B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725FE60&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL499886</t>
+          <t>CHEMBL254280</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ccnc3[nH]cc(CO)c23)c(F)c1</t>
+          <t>Cc1c(OCCCN(C)C)cn2ncnc(Oc3ccc(NC(=O)CC(=O)Nc4ccc(F)cc4)cc3F)c12</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ccnc3[nH]cc(CO)c23)c(F)c1</t>
+          <t>Cc1c(OCCCN(C)C)cn2ncnc(Oc3ccc(NC(=O)CC(=O)Nc4ccc(F)cc4)cc3F)c12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>452.42</v>
+        <v>538.5599999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>116.34</v>
+        <v>110.09</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725CC80&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL1097142</t>
+          <t>CHEMBL518209</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nc1cc(Oc2ccc(Nc3ncccc3C(=O)Nc3ccc(F)cc3F)cc2F)ccn1</t>
+          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)C5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nc1cc(Oc2ccc(Nc3ncccc3C(=O)Nc3ccc(F)cc3F)cc2F)ccn1</t>
+          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)C5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>451.41</v>
+        <v>527.58</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>6</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>102.16</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725FF40&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL565990</t>
+          <t>CHEMBL402036</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CCn1cnc(C(=O)c2cc3nccc(Oc4ccc(NC(=O)CC(=O)Nc5ccccc5)cc4F)c3s2)c1</t>
+          <t>CN(C)C(=O)c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CCn1cnc(C(=O)c2cc3nccc(Oc4ccc(NC(=O)CC(=O)Nc5ccccc5)cc4F)c3s2)c1</t>
+          <t>CN(C)C(=O)c1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2s1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>543.58</v>
+        <v>508.6</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -1332,16 +1332,16 @@
         <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>115.21</v>
+        <v>83.56</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725CB30&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL453849</t>
+          <t>CHEMBL602704</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CC(C)CCn1cccc(C(=O)Nc2ccc(Oc3ccnc4[nH]ccc34)c(F)c2)c1=O</t>
+          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(CC(=O)Nc5ccc(F)cc5)C(F)(F)F)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CC(C)CCn1cccc(C(=O)Nc2ccc(Oc3ccnc4[nH]ccc34)c(F)c2)c1=O</t>
+          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(CC(=O)Nc5ccc(F)cc5)C(F)(F)F)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>434.47</v>
+        <v>573.55</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>89.01000000000001</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCBED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725FCA0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL400332</t>
+          <t>CHEMBL257546</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cc1c(OCCCN(C)C)cn2ncnc(Oc3ccc(NC(=O)c4c(F)cccc4F)cc3F)c12</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(C(=O)c4ccco4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cc1c(OCCCN(C)C)cn2ncnc(Oc3ccc(NC(=O)c4c(F)cccc4F)cc3F)c12</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(C(=O)c4ccco4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>499.49</v>
+        <v>531.59</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>80.98999999999999</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC8200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725D1C0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL1098517</t>
+          <t>CHEMBL429490</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(F)cc1F)c1nccnc1Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1</t>
+          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ncnn3ccc(CNC4CCNCC4)c23)c(F)c1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(F)cc1F)c1nccnc1Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1</t>
+          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ncnn3ccc(CNC4CCNCC4)c23)c(F)c1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>476.42</v>
+        <v>535.5599999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>104.82</v>
+        <v>121.68</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC82E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725F680&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL429490</t>
+          <t>CHEMBL448993</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ncnn3ccc(CNC4CCNCC4)c23)c(F)c1</t>
+          <t>CC(=O)c1cccc(-c2cc3nccc(Oc4ccc(NC(=O)N5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ncnn3ccc(CNC4CCNCC4)c23)c(F)c1</t>
+          <t>CC(=O)c1cccc(-c2cc3nccc(Oc4ccc(NC(=O)N5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>535.5599999999999</v>
+        <v>566.61</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>121.68</v>
+        <v>91.84</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC85F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725D230&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL448993</t>
+          <t>CHEMBL402792</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CC(=O)c1cccc(-c2cc3nccc(Oc4ccc(NC(=O)N5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
+          <t>Cn1cc(-c2cc3nccc(Oc4ccc(NC(=S)NC(=O)Cc5ccccc5)cc4F)c3s2)cn1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CC(=O)c1cccc(-c2cc3nccc(Oc4ccc(NC(=O)N5CCN(c6ccccc6)C5=O)cc4F)c3s2)c1</t>
+          <t>Cn1cc(-c2cc3nccc(Oc4ccc(NC(=S)NC(=O)Cc5ccccc5)cc4F)c3s2)cn1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1659,29 +1659,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>566.61</v>
+        <v>517.61</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>91.84</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC8C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725D2A0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL600632</t>
+          <t>CHEMBL255092</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)CC(Nc5ccccc5)C(F)(F)F)cc4F)c3s2)c1</t>
+          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)c4c(F)cccc4F)cc3F)c12</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)CC(Nc5ccccc5)C(F)(F)F)cc4F)c3s2)c1</t>
+          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)c4c(F)cccc4F)cc3F)c12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1727,17 +1727,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>555.5599999999999</v>
+        <v>540.55</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
         <v>8</v>
@@ -1746,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>81.06999999999999</v>
+        <v>84.23</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC8F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725D310&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL399698</t>
+          <t>CHEMBL257987</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)CC(=O)Nc4ccc(F)cc4)cc3F)c12</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4nncs4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)CC(=O)Nc4ccc(F)cc4)cc3F)c12</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4nncs4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>579.61</v>
+        <v>521.62</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>113.33</v>
+        <v>89.03</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC9620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725DAF0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL401838</t>
+          <t>CHEMBL256767</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(C(=O)N4CCOCC4)sc23)c(F)c1</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4ncccn4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(C(=O)N4CCOCC4)sc23)c(F)c1</t>
+          <t>O=C(Cc1ccccc1)NC(=S)Nc1ccc(Oc2ccnc3cc(-c4ncccn4)sc23)c(F)c1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>550.64</v>
+        <v>515.6</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
@@ -1882,10 +1882,10 @@
         <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>92.79000000000001</v>
+        <v>89.03</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC9850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002730725F760&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C35742248</t>
+          <t>C49716581</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>O=C(c1ccco1)N(CC[NH+]1CCCC1)CC(=O)N1CCc2sccc2[C@@H]1COc1ccc(F)cc1</t>
+          <t>BrCCCC[NH+]1C[C@H]2CC[C@@H]1C2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>O=C(c1ccco1)N(CC[NH+]1CCCC1)CC(=O)N1CCc2sccc2[C@@H]1COc1ccc(F)cc1</t>
+          <t>BrCCCC[NH+]1C[C@H]2CC[C@@H]1C2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>512.63</v>
+        <v>233.17</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>67.43000000000001</v>
+        <v>4.44</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCC10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AD930&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C65248649</t>
+          <t>C09228479</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>COc1cccc(C2=NO[C@@H]([C@H]3C(=O)[NH+]=c4ccc(C)cc4=C3O)N2)c1OC</t>
+          <t>Brc1cccc(C[NH2+]Cc2cccn2-c2nnc(N3CCN(c4ccccc4)CC3)s2)c1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>COc1cccc(C2=NO[C@@H]([C@H]3C(=O)[NH+]=c4ccc(C)cc4=C3O)N2)c1OC</t>
+          <t>Brc1cccc(C[NH2+]Cc2cccn2-c2nnc(N3CCN(c4ccccc4)CC3)s2)c1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>382.4</v>
+        <v>510.49</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>103.35</v>
+        <v>53.8</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD7E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AF4C0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C05164633</t>
+          <t>C65248649</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CC1=NN=C2OC(N)=C(C#N)[C@]3(C(=O)N(CCCc4ccccc4)c4ccccc43)[C@@H]12</t>
+          <t>COc1cccc(C2=NO[C@@H]([C@H]3C(=O)[NH+]=c4ccc(C)cc4=C3O)N2)c1OC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CC1=NN=C2OC(N)=C(C#N)[C@]3(C(=O)N(CCCc4ccccc4)c4ccccc43)[C@@H]12</t>
+          <t>COc1cccc(C2=NO[C@@H]([C@H]3C(=O)[NH+]=c4ccc(C)cc4=C3O)N2)c1OC</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>411.47</v>
+        <v>382.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
         <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>104.07</v>
+        <v>103.35</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCF20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AE650&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C13165916</t>
+          <t>C09325754</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])C1=C/C(=[N+](/[O-])O)c2cccnc2[C@]12SC1=CC=CC=CC1=[N+]2Cc1ccccc1</t>
+          <t>C=CCn1/c(=N/C(=O)c2ccccc2NS(=O)(=O)c2ccccc2)sc2c(Cl)ccc(OC)c21</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])C1=C/C(=[N+](/[O-])O)c2cccnc2[C@]12SC1=CC=CC=CC1=[N+]2Cc1ccccc1</t>
+          <t>C=CCn1/c(=N/C(=O)c2ccccc2NS(=O)(=O)c2ccccc2)sc2c(Cl)ccc(OC)c21</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>445.48</v>
+        <v>514.03</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>105.34</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD2A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AFB50&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C10508026</t>
+          <t>C05164633</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc(S(=O)(=O)NC[C@H](c2cccc3ccccc23)[NH+]2CCCC2)cc1</t>
+          <t>CC1=NN=C2OC(N)=C(C#N)[C@]3(C(=O)N(CCCc4ccccc4)c4ccccc43)[C@@H]12</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccc(S(=O)(=O)NC[C@H](c2cccc3ccccc23)[NH+]2CCCC2)cc1</t>
+          <t>CC1=NN=C2OC(N)=C(C#N)[C@]3(C(=O)N(CCCc4ccccc4)c4ccccc43)[C@@H]12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>426.52</v>
+        <v>411.47</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" t="n">
         <v>2</v>
       </c>
-      <c r="I26" t="n">
-        <v>4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>7</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3</v>
-      </c>
       <c r="M26" t="n">
-        <v>93.75</v>
+        <v>104.07</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AD150&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C08862345</t>
+          <t>C39715264</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CCn1c(CSc2nc3nc(C)cc(C)n3n2)nc2cc(S(=O)(=O)N3CCOCC3)ccc21</t>
+          <t>O=C([O-])CCN1C(=O)/C(=C/c2ccc(-c3ccc(Cl)cc3[N+](=O)[O-])o2)c2ccccc2C1=O</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CCn1c(CSc2nc3nc(C)cc(C)n3n2)nc2cc(S(=O)(=O)N3CCOCC3)ccc21</t>
+          <t>O=C([O-])CCN1C(=O)/C(=C/c2ccc(-c3ccc(Cl)cc3[N+](=O)[O-])o2)c2ccccc2C1=O</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>487.61</v>
+        <v>465.83</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
         <v>6</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>107.51</v>
+        <v>133.79</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072ADB60&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C66859830</t>
+          <t>C19742373</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>O[C@@]1(CNc2ccc3nnnn3n2)CCCc2ccccc21</t>
+          <t>Cc1ncc2c(c1-c1noc([C@H]3CCC(=O)NC3)n1)CCN(c1cc[nH+]cc1)C2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>O[C@@]1(CNc2ccc3nnnn3n2)CCCc2ccccc21</t>
+          <t>Cc1ncc2c(c1-c1noc([C@H]3CCC(=O)NC3)n1)CCN(c1cc[nH+]cc1)C2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>296.33</v>
+        <v>391.46</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>6</v>
@@ -2355,13 +2355,13 @@
         <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
         <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>88.23</v>
+        <v>98.29000000000001</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072ADBD0&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C45498864</t>
+          <t>C12389424</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CC(C)Oc1cc(-c2ccc(CC[NH2+]C[C@H](O)c3c[nH+]ccc3N)cc2)ccc1/C([O-])=N/S(C)(=O)=O</t>
+          <t>CNC(=O)CSC1=Nc2c(cnn2-c2ccc(C)cc2)C2=[NH+]CCCN12</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CC(C)Oc1cc(-c2ccc(CC[NH2+]C[C@H](O)c3c[nH+]ccc3N)cc2)ccc1/C([O-])=N/S(C)(=O)=O</t>
+          <t>CNC(=O)CSC1=Nc2c(cnn2-c2ccc(C)cc2)C2=[NH+]CCCN12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>513.64</v>
+        <v>369.47</v>
       </c>
       <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
         <v>3</v>
       </c>
-      <c r="I29" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11</v>
-      </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>155.79</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDC970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AFAE0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C04237023</t>
+          <t>C14437962</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C#CCNC(=O)C[C@@H]1c2nc(NC(=O)OCC=C)sc2C[C@@H]2[C@](C)(CO)[C@H](O)CC[C@]21C</t>
+          <t>Cc1c(O)cc2c(c1O)C(=O)[C@@H](O)[C@H](c1cc(O)c(O)c(O)c1)O2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C#CCNC(=O)C[C@@H]1c2nc(NC(=O)OCC=C)sc2C[C@H]2[C@@]1(C)CC[C@@H](O)[C@@]2(C)CO</t>
+          <t>Cc1c(O)cc2c(c1O)C(=O)[C@@H](O)[C@H](c1cc(O)c(O)c(O)c1)O2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>461.58</v>
+        <v>334.28</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>120.78</v>
+        <v>147.68</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCF90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AD310&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C04264725</t>
+          <t>C09597276</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CC(C)[C@H](NC(=O)[C@@H]1O[C@H]2OC(C)(C)O[C@@H]2[C@H]2OC(C)(C)O[C@@H]21)C(=O)[O-]</t>
+          <t>COc1ccc(-c2n[nH]c3c2[C@@H](c2ccc(N(C)C)cc2)C2=C(CC(C)(C)CC2=O)N3)cc1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CC(C)[C@H](NC(=O)[C@@H]1O[C@H]2OC(C)(C)O[C@@H]2[C@H]2OC(C)(C)O[C@@H]21)C(=O)[O-]</t>
+          <t>COc1ccc(-c2n[nH]c3c2[C@@H](c2ccc(N(C)C)cc2)C2=C(CC(C)(C)CC2=O)N3)cc1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>372.39</v>
+        <v>442.56</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
       </c>
       <c r="K31" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" t="n">
         <v>3</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
       <c r="M31" t="n">
-        <v>115.38</v>
+        <v>70.25</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCAC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AE9D0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C39738846</t>
+          <t>C40000751</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CC(=O)c1c(C)[nH]c(C(=O)[C@H](C)S[C@H]2Nn3c(nnc(C(C)(C)C)c3=O)S2)c1C</t>
+          <t>CC1=C(c2csc(N3CCCC3)n2)C[C@H](C)N1c1nc[nH]n1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CC(=O)c1c(C)[nH]c(C(=O)[C@H](C)S[C@H]2Nn3c(nnc(C(C)(C)C)c3=O)S2)c1C</t>
+          <t>CC1=C(c2csc(N3CCCC3)n2)C[C@H](C)N1c1nc[nH]n1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>435.58</v>
+        <v>316.43</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
         <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>109.74</v>
+        <v>60.94</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD9A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AEAB0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C09236719</t>
+          <t>C03088083</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CCc1cccc2c1NC(=O)[C@]21[C@@H]2C(=O)N(c3ccc(Br)cc3)C(=O)[C@@H]2[C@@H]2CCC[NH+]21</t>
+          <t>Cc1cc(C(F)(F)F)c2c(n1)sc1c(N)nc(N)nc12</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CCc1cccc2c1NC(=O)[C@]21[C@@H]2C(=O)N(c3ccc(Br)cc3)C(=O)[C@@H]2[C@@H]2CCC[NH+]21</t>
+          <t>Cc1cc(C(F)(F)F)c2c(n1)sc1c(N)nc(N)nc12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>481.37</v>
+        <v>299.28</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>3</v>
       </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>6</v>
-      </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>70.92</v>
+        <v>90.70999999999999</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDDA80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AC7B0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C06244925</t>
+          <t>C54154880</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cc1ccc(C)c2[nH]c(=O)c([C@H](c3nnnn3C[C@@H]3CCCO3)[NH+]3CCN(c4ccccc4F)CC3)cc12</t>
+          <t>C[C@H](CNC(=O)c1c(F)c(F)c(F)c(F)c1F)/C(N)=N/O</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cc1ccc(C)c2[nH]c(=O)c([C@H](c3nnnn3C[C@@H]3CCCO3)[NH+]3CCN(c4ccccc4F)CC3)cc12</t>
+          <t>C[C@H](CNC(=O)c1c(F)c(F)c(F)c(F)c1F)/C(N)=N/O</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,25 +2751,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>518.62</v>
+        <v>311.21</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>93.37</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDDFC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AC0B0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C40010451</t>
+          <t>C63078612</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCC2=C3C(=O)N=C(COC(=O)c4ccc([N+](=O)[O-])s4)N=C3S[C@@H]2C1</t>
+          <t>CC(C)C[C@H](C)OCc1nc(Cl)c2cnn(C)c2n1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCC2=C3C(=O)N=C(COC(=O)c4ccc([N+](=O)[O-])s4)N=C3S[C@@H]2C1</t>
+          <t>CC(C)C[C@H](C)OCc1nc(Cl)c2cnn(C)c2n1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>405.46</v>
+        <v>282.77</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>111.23</v>
+        <v>52.83</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDE030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AC270&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C63938142</t>
+          <t>C01424204</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>N[C@H]1C(c2ccccc2)=C(CSC2[NH+]=c3ccccc3=[NH+]2)NN1c1cccc(Cl)c1</t>
+          <t>CCOc1cc(C)c(Cl)cc1S(=O)(=O)NCCc1c(C)[nH]c2ccc(OC(F)(F)F)cc12</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>N[C@H]1C(c2ccccc2)=C(CSC2[NH+]=c3ccccc3=[NH+]2)NN1c1cccc(Cl)c1</t>
+          <t>CCOc1cc(C)c(Cl)cc1S(=O)(=O)NCCc1c(C)[nH]c2ccc(OC(F)(F)F)cc12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,25 +2887,25 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>435.98</v>
+        <v>490.93</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
         <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>69.23</v>
+        <v>80.42</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDE500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AC3C0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C38586321</t>
+          <t>C36490170</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CC1=C2[C@H](c3c(Cl)cccc3Cl)CC(O)=N[C@@H]2N(C2=NC=NC3=NC=N[C@@H]32)N1</t>
+          <t>C[C@]12CCCC[C@H]1[C@@H]2C(=O)N/N=C\c1cc(Br)c(O)cc1O</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CC1=C2[C@H](c3c(Cl)cccc3Cl)CC(O)=N[C@@H]2N(C2=NC=NC3=NC=N[C@@H]32)N1</t>
+          <t>C[C@]12CCCC[C@H]1[C@@H]2C(=O)N/N=C\c1cc(Br)c(O)cc1O</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2955,25 +2955,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>416.27</v>
+        <v>367.24</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
         <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>97.3</v>
+        <v>81.92</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDE6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AE490&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C60556185</t>
+          <t>C13102347</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cc1cc(I)ccc1NCc1cc(=O)n2ccsc2[nH+]1</t>
+          <t>Nc1c(Cl)c(Cl)nc(C(=O)N/N=C2/C(=O)c3cccc4cccc2c34)c1Cl</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cc1cc(I)ccc1NCc1cc(=O)n2ccsc2[nH+]1</t>
+          <t>Nc1c(Cl)c(Cl)nc(C(=O)N/N=C2/C(=O)c3cccc4cccc2c34)c1Cl</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3023,25 +3023,25 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>398.25</v>
+        <v>419.65</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
+        <v>4</v>
+      </c>
+      <c r="J38" t="n">
         <v>2</v>
       </c>
-      <c r="J38" t="n">
-        <v>3</v>
-      </c>
       <c r="K38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>47.65</v>
+        <v>97.44</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDEE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AC510&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C38807866</t>
+          <t>C35574507</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>O=C(CN1C=C(/C=N/O)C=CC1)C1CCC(C2CCC(C(=O)C[NH+]3CCC[C@@H](/C=N/O)C3)CC2)CC1</t>
+          <t>O=C(CCC1CCCC1)N1CCN(c2nc(CN3CC[NH+](C4CCCC4)CC3)cc(=O)[nH]2)CC1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>O=C(CN1C=C(/C=N/O)C=CC1)C1CCC(C2CCC(C(=O)C[NH+]3CCC[C@@H](/C=N/O)C3)CC2)CC1</t>
+          <t>O=C(CCC1CCCC1)N1CCN(c2nc(CN3CC[NH+](C4CCCC4)CC3)cc(=O)[nH]2)CC1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3091,25 +3091,25 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>499.68</v>
+        <v>471.67</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
         <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>107</v>
+        <v>76.98</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDEFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AE570&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C41273818</t>
+          <t>C41257345</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>C[C@H](CNC(=O)C1CC[NH+](Cc2nnc(-c3ccc(Cl)cc3)o2)CC1)c1ccccc1</t>
+          <t>N#C[C@@H](c1cccs1)N1CCN(C(=O)NC2CCCCC2)CC1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>C[C@H](CNC(=O)C1CC[NH+](Cc2nnc(-c3ccc(Cl)cc3)o2)CC1)c1ccccc1</t>
+          <t>N#C[C@@H](c1cccs1)N1CCN(C(=O)NC2CCCCC2)CC1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3159,25 +3159,25 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>439.97</v>
+        <v>332.47</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>72.45999999999999</v>
+        <v>59.37</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDF0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AD690&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C09306596</t>
+          <t>C39359946</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CCOC(=O)CCc1c(C)c2ccc3c(c2oc1=O)C[NH+]([C@@]1(C)CCS(=O)(=O)C1)CO3</t>
+          <t>O=C(c1[nH]nc2c1CCCC2)N1CCC2=C(C1)[C@@H](C1CCCC1)N=N2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CCOC(=O)CCc1c(C)c2ccc3c(c2oc1=O)C[NH+]([C@@]1(C)CCS(=O)(=O)C1)CO3</t>
+          <t>O=C(c1[nH]nc2c1CCCC2)N1CCC2=C(C1)[C@@H](C1CCCC1)N=N2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3223,29 +3223,29 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>450.53</v>
+        <v>339.44</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>104.32</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDF290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AF7D0&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C37538300</t>
+          <t>C40010451</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C=C1[C@@H](O)[C@@H](O)[C@@]2(C[C@@H]3C(C)=CC[C@@H]4C(C)(C)CCC[C@]34C)O[C@H]2[C@H]1O</t>
+          <t>C[C@@H]1CCC2=C3C(=O)N=C(COC(=O)c4ccc([N+](=O)[O-])s4)N=C3S[C@@H]2C1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C=C1[C@H](O)[C@@H]2O[C@]2(C[C@@H]2C(C)=CC[C@@H]3C(C)(C)CCC[C@]23C)[C@H](O)[C@@H]1O</t>
+          <t>C[C@@H]1CCC2=C3C(=O)N=C(COC(=O)c4ccc([N+](=O)[O-])s4)N=C3S[C@@H]2C1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3291,29 +3291,29 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>362.51</v>
+        <v>405.46</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>73.22</v>
+        <v>111.23</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDF4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AC900&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C17250670</t>
+          <t>C50577822</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>C[C@@H]1CN(S(=O)(=O)c2cccc(-c3cs/c(=N\N=C\c4ccc(Cl)cc4)[nH]3)c2)C[C@H](C)O1</t>
+          <t>CNC(=O)c1ccc(NC(=O)C(=O)NNc2ccc(Cl)cc2Cl)c(C)c1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>C[C@H]1CN(S(=O)(=O)c2cccc(-c3cs/c(=N\N=C\c4ccc(Cl)cc4)[nH]3)c2)C[C@@H](C)O1</t>
+          <t>CNC(=O)c1ccc(NC(=O)C(=O)NNc2ccc(Cl)cc2Cl)c(C)c1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3359,29 +3359,29 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>491.04</v>
+        <v>395.25</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>87.12</v>
+        <v>99.33</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDF920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AFA70&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL517956</t>
+          <t>C36502049</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cc1ccc(O)cc1CC[C@@H]1[C@H](O)CC[C@]2(C)[C@@H]([C@H](C)CCCC(C)C)CC[C@@H]12</t>
+          <t>Cc1ccccc1[C@H](C(=O)NC(C)(C)CC(C)(C)C)N(Cc1ccco1)C(=O)Cc1ccc2c(c1)OCO2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cc1ccc(O)cc1CC[C@H]1[C@@H]2CC[C@H]([C@H](C)CCCC(C)C)[C@@]2(C)CC[C@H]1O</t>
+          <t>Cc1ccccc1[C@H](C(=O)NC(C)(C)CC(C)(C)C)N(Cc1ccco1)C(=O)Cc1ccc2c(c1)OCO2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3427,66 +3427,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>400.65</v>
+        <v>518.65</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K44" t="n">
+        <v>4</v>
+      </c>
+      <c r="L44" t="n">
         <v>3</v>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
       <c r="M44" t="n">
-        <v>40.46</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>78000</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>CHEMBL1926227</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Inhibition of wild type human MET using poly(Ala,Glu,Lys,Tyr) as substrate</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>81.01000000000001</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDF990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AF8B0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3498,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL1813628</t>
+          <t>C25111348</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3506,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2c(C)[nH]c(=O)c3c(N)nn(C)c23)cc1</t>
+          <t>Cn1c(=O)c2c(nc(Cl)n2CC(=O)N2CCC[C@H]2c2ccc3c(c2)OCCO3)n(C)c1=O</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2c(C)[nH]c(=O)c3c(N)nn(C)c23)cc1</t>
+          <t>Cn1c(=O)c2c(nc(Cl)n2CC(=O)N2CCC[C@H]2c2ccc3c(c2)OCCO3)n(C)c1=O</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3521,66 +3495,40 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>284.32</v>
+        <v>459.89</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L45" t="n">
         <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>85.93000000000001</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>18</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>CHEMBL1815730</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Inhibition of MET at 30 uM by microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>100.59</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDFB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AF370&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3592,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL1940997</t>
+          <t>C18206468</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3600,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CC(=O)OC[C@H]1O[C@@H](NC(=O)CCCn2[se]c3ccccc3c2=O)[C@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
+          <t>CC1=NN(c2ccc(C)c(C)c2)C(=O)[C@@H]1[C@@H](c1ccccc1Cl)c1c(C)[nH]n(-c2ccc(C)c(C)c2)c1=O</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CC(=O)OC[C@H]1O[C@@H](NC(=O)CCCn2[se]c3ccccc3c2=O)[C@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
+          <t>CC1=NN(c2ccc(C)c(C)c2)C(=O)[C@@H]1[C@@H](c1ccccc1Cl)c1c(C)[nH]n(-c2ccc(C)c(C)c2)c1=O</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3615,66 +3563,40 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>613.48</v>
+        <v>527.0700000000001</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>165.53</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>CHEMBL1943931</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Inhibition of MET at 1 uM</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>70.45999999999999</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDFD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072AEDC0&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3686,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL1171699</t>
+          <t>C12765806</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3694,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>OCc1cccc(-c2cnc3ncc(-c4cn[nH]c4)cn23)c1</t>
+          <t>Cc1nc(-c2ccc(N[C@H](C)C(=O)Nc3ccc(Br)cc3)cc2)cs1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>OCc1cccc(-c2cnc3ncc(-c4cn[nH]c4)cn23)c1</t>
+          <t>Cc1nc(-c2ccc(N[C@H](C)C(=O)Nc3ccc(Br)cc3)cc2)cs1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3709,66 +3631,40 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>291.31</v>
+        <v>416.34</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
+        <v>5</v>
+      </c>
+      <c r="K47" t="n">
         <v>3</v>
       </c>
-      <c r="K47" t="n">
-        <v>4</v>
-      </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>CHEMBL1173995</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Inhibition of MET at 10 uM by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>54.02</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCC80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072CDBD0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3780,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL2062290</t>
+          <t>C09831518</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3788,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nc(-c4cccs4)c(Br)cc23)CC1</t>
+          <t>O=C(CCc1nnc2n(Cc3ccccc3Cl)c(=O)c3ccccc3n12)NCCc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nc(-c4cccs4)c(Br)cc23)CC1</t>
+          <t>O=C(CCc1nnc2n(Cc3ccccc3Cl)c(=O)c3ccccc3n12)NCCc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3803,11 +3699,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>448.39</v>
+        <v>525.01</v>
       </c>
       <c r="H48" t="n">
         <v>2</v>
@@ -3816,53 +3712,27 @@
         <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
-        <v>73.91</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>CHEMBL1962142</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>97.08</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072CDA10&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3874,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL220465</t>
+          <t>C09374615</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3882,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cnc(Oc3cccc(NC(=O)c4ccc(N(C)C)cc4)c3)cc21</t>
+          <t>Cc1ccccc1COc1ccc(C(=O)C2=C([O-])C(=O)N(CCC[NH+](C)C)[C@@H]2c2cccc(O)c2)cc1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2cnc(Oc3cccc(NC(=O)c4ccc(N(C)C)cc4)c3)cc21</t>
+          <t>Cc1ccccc1COc1ccc(C(=O)C2=C([O-])C(=O)N(CCC[NH+](C)C)[C@@H]2c2cccc(O)c2)cc1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3897,66 +3767,40 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>484.52</v>
+        <v>500.6</v>
       </c>
       <c r="H49" t="n">
         <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>137.22</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>-2.97</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CHEMBL1962142</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>94.34</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDD700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072CF4C0&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3968,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL233002</t>
+          <t>C08763874</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3976,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)c3ccccc23)sc2c1CCCC2</t>
+          <t>Cc1cc(C)cc(Oc2coc3cc(OC[C@@H](O)C[NH+]4CCCC[C@@H]4C)ccc3c2=O)c1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)c3ccccc23)sc2c1CCCC2</t>
+          <t>Cc1cc(C)cc(Oc2coc3cc(OC[C@@H](O)C[NH+]4CCCC[C@@H]4C)ccc3c2=O)c1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3991,20 +3835,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>350.42</v>
+        <v>438.54</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K50" t="n">
         <v>4</v>
@@ -4013,44 +3857,18 @@
         <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>52.89</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CHEMBL1962142</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>73.34</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CDCEB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000273072CCE40&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
